--- a/posesiones/1479706.xlsx
+++ b/posesiones/1479706.xlsx
@@ -1841,10 +1841,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1885,7 +1885,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1985,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2035,7 +2035,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>23</v>
@@ -2085,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2135,7 +2135,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>20</v>
@@ -2188,7 +2188,7 @@
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R10">
         <v>16</v>
@@ -2241,7 +2241,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R11">
         <v>17</v>
@@ -2294,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2344,7 +2344,7 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R13">
         <v>16</v>
@@ -2397,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2447,7 +2447,7 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R15">
         <v>5</v>
@@ -2500,7 +2500,7 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R16">
         <v>16</v>
@@ -2553,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2603,7 +2603,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R18">
         <v>20</v>
@@ -2653,7 +2653,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2700,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2747,7 +2747,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2844,7 +2844,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R23">
         <v>17</v>
@@ -2897,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2944,7 +2944,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3044,7 +3044,7 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R27">
         <v>22</v>
@@ -3097,7 +3097,7 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R28">
         <v>13</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3200,7 +3200,7 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R30">
         <v>11</v>
@@ -3250,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3297,7 +3297,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3344,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3394,7 +3394,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R34">
         <v>3</v>
@@ -3447,7 +3447,7 @@
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R35">
         <v>15</v>
@@ -3500,7 +3500,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R36">
         <v>13</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3644,7 +3644,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3691,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3741,7 +3741,7 @@
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R41">
         <v>16</v>
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R42">
         <v>13</v>
@@ -3844,7 +3844,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3894,7 +3894,7 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R44">
         <v>19</v>
@@ -3944,7 +3944,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -3994,7 +3994,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R46">
         <v>16</v>
@@ -4044,7 +4044,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4094,7 +4094,7 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R48">
         <v>17</v>
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4194,7 +4194,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R50">
         <v>24</v>
@@ -4244,7 +4244,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4294,7 +4294,7 @@
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R52">
         <v>23</v>
@@ -4344,7 +4344,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4394,7 +4394,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4441,7 +4441,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4488,7 +4488,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4535,7 +4535,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4585,7 +4585,7 @@
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R58">
         <v>14</v>
@@ -4638,7 +4638,7 @@
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R59">
         <v>24</v>
@@ -4688,7 +4688,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4735,7 +4735,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4785,7 +4785,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4835,7 +4835,7 @@
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R63">
         <v>30</v>
@@ -4885,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4979,7 +4979,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5073,7 +5073,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5120,7 +5120,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5170,7 +5170,7 @@
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R70">
         <v>0</v>
@@ -5220,7 +5220,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5267,7 +5267,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5317,7 +5317,7 @@
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R73">
         <v>12</v>
@@ -5367,7 +5367,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5414,7 +5414,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5461,7 +5461,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5508,7 +5508,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5555,7 +5555,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5605,7 +5605,7 @@
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R79">
         <v>0</v>
@@ -5658,7 +5658,7 @@
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R80">
         <v>17</v>
@@ -5708,7 +5708,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5758,7 +5758,7 @@
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R82">
         <v>22</v>
@@ -5811,7 +5811,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5861,7 +5861,7 @@
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R84">
         <v>9</v>
@@ -5911,7 +5911,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5961,7 +5961,7 @@
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R86">
         <v>20</v>
@@ -6011,7 +6011,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6061,7 +6061,7 @@
         <v>1</v>
       </c>
       <c r="Q88">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R88">
         <v>21</v>
@@ -6111,7 +6111,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6161,7 +6161,7 @@
         <v>1</v>
       </c>
       <c r="Q90">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R90">
         <v>28</v>
@@ -6214,7 +6214,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6264,7 +6264,7 @@
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R92">
         <v>8</v>
@@ -6314,7 +6314,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6364,7 +6364,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6411,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6458,7 +6458,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6505,7 +6505,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6552,7 +6552,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6599,7 +6599,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6646,7 +6646,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6693,7 +6693,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6740,7 +6740,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6834,7 +6834,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6884,7 +6884,7 @@
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R105">
         <v>39</v>
@@ -6928,10 +6928,10 @@
         <v>1</v>
       </c>
       <c r="P106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q106">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -6978,7 +6978,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7025,7 +7025,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7072,7 +7072,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7119,7 +7119,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7160,10 +7160,10 @@
         <v>1</v>
       </c>
       <c r="P111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q111">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7210,7 +7210,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7260,7 +7260,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7307,7 +7307,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7354,7 +7354,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7401,7 +7401,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7451,7 +7451,7 @@
         <v>1</v>
       </c>
       <c r="Q117">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R117">
         <v>17</v>
@@ -7504,7 +7504,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7554,7 +7554,7 @@
         <v>1</v>
       </c>
       <c r="Q119">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R119">
         <v>11</v>
@@ -7607,7 +7607,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7657,7 +7657,7 @@
         <v>1</v>
       </c>
       <c r="Q121">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R121">
         <v>20</v>
@@ -7710,7 +7710,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7757,7 +7757,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7804,7 +7804,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7851,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7898,7 +7898,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -7945,7 +7945,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -7995,7 +7995,7 @@
         <v>1</v>
       </c>
       <c r="Q128">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R128">
         <v>7</v>
@@ -8045,7 +8045,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8092,7 +8092,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8142,7 +8142,7 @@
         <v>1</v>
       </c>
       <c r="Q131">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R131">
         <v>29</v>
@@ -8192,7 +8192,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8286,7 +8286,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8333,7 +8333,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8380,7 +8380,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8427,7 +8427,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8474,7 +8474,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8521,7 +8521,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8571,7 +8571,7 @@
         <v>1</v>
       </c>
       <c r="Q140">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R140">
         <v>12</v>
@@ -8624,7 +8624,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8674,7 +8674,7 @@
         <v>1</v>
       </c>
       <c r="Q142">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R142">
         <v>20</v>
@@ -8724,7 +8724,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8774,7 +8774,7 @@
         <v>1</v>
       </c>
       <c r="Q144">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R144">
         <v>13</v>
@@ -8827,7 +8827,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8877,7 +8877,7 @@
         <v>1</v>
       </c>
       <c r="Q146">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R146">
         <v>18</v>
@@ -8927,7 +8927,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -8971,7 +8971,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9018,7 +9018,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9065,7 +9065,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9112,7 +9112,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9159,7 +9159,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9206,7 +9206,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9256,7 +9256,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9303,7 +9303,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9350,7 +9350,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9397,7 +9397,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9447,7 +9447,7 @@
         <v>1</v>
       </c>
       <c r="Q158">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R158">
         <v>23</v>
@@ -9500,7 +9500,7 @@
         <v>1</v>
       </c>
       <c r="Q159">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R159">
         <v>22</v>
@@ -9553,7 +9553,7 @@
         <v>1</v>
       </c>
       <c r="Q160">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R160">
         <v>19</v>
@@ -9606,7 +9606,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9656,7 +9656,7 @@
         <v>1</v>
       </c>
       <c r="Q162">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R162">
         <v>10</v>
@@ -9709,7 +9709,7 @@
         <v>1</v>
       </c>
       <c r="Q163">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R163">
         <v>21</v>
@@ -9762,7 +9762,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9812,7 +9812,7 @@
         <v>1</v>
       </c>
       <c r="Q165">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R165">
         <v>16</v>
@@ -9865,7 +9865,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -9912,7 +9912,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -9959,7 +9959,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10006,7 +10006,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10053,7 +10053,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10100,7 +10100,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10147,7 +10147,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10197,7 +10197,7 @@
         <v>1</v>
       </c>
       <c r="Q173">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R173">
         <v>25</v>
@@ -10250,7 +10250,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10300,7 +10300,7 @@
         <v>1</v>
       </c>
       <c r="Q175">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R175">
         <v>14</v>
@@ -10353,7 +10353,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10400,7 +10400,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10450,7 +10450,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10497,7 +10497,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10544,7 +10544,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10591,7 +10591,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10641,7 +10641,7 @@
         <v>1</v>
       </c>
       <c r="Q182">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R182">
         <v>13</v>
@@ -10691,7 +10691,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10738,7 +10738,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10785,7 +10785,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10838,7 +10838,7 @@
         <v>1</v>
       </c>
       <c r="Q186">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R186">
         <v>8</v>
@@ -10888,7 +10888,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -10935,7 +10935,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -10982,7 +10982,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11029,7 +11029,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11079,7 +11079,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11129,7 +11129,7 @@
         <v>1</v>
       </c>
       <c r="Q192">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R192">
         <v>26</v>
@@ -11176,7 +11176,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11223,7 +11223,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11270,7 +11270,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11317,7 +11317,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11370,7 +11370,7 @@
         <v>1</v>
       </c>
       <c r="Q197">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R197">
         <v>12</v>
@@ -11420,7 +11420,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11470,7 +11470,7 @@
         <v>1</v>
       </c>
       <c r="Q199">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R199">
         <v>23</v>
@@ -11520,7 +11520,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11570,7 +11570,7 @@
         <v>1</v>
       </c>
       <c r="Q201">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R201">
         <v>17</v>
@@ -11623,7 +11623,7 @@
         <v>1</v>
       </c>
       <c r="Q202">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R202">
         <v>19</v>
@@ -11676,7 +11676,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11726,7 +11726,7 @@
         <v>1</v>
       </c>
       <c r="Q204">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R204">
         <v>18</v>
@@ -11779,7 +11779,7 @@
         <v>1</v>
       </c>
       <c r="Q205">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R205">
         <v>19</v>
@@ -11832,7 +11832,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11879,7 +11879,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -11926,7 +11926,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -11973,7 +11973,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12020,7 +12020,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12070,7 +12070,7 @@
         <v>1</v>
       </c>
       <c r="Q211">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R211">
         <v>17</v>
@@ -12123,7 +12123,7 @@
         <v>1</v>
       </c>
       <c r="Q212">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R212">
         <v>18</v>
@@ -12173,7 +12173,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12223,7 +12223,7 @@
         <v>1</v>
       </c>
       <c r="Q214">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R214">
         <v>11</v>
@@ -12276,7 +12276,7 @@
         <v>1</v>
       </c>
       <c r="Q215">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R215">
         <v>20</v>
@@ -12326,7 +12326,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12370,7 +12370,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12417,7 +12417,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12464,7 +12464,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12514,7 +12514,7 @@
         <v>1</v>
       </c>
       <c r="Q220">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R220">
         <v>16</v>
@@ -12564,7 +12564,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12614,7 +12614,7 @@
         <v>1</v>
       </c>
       <c r="Q222">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R222">
         <v>20</v>
@@ -12664,7 +12664,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12711,7 +12711,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12758,7 +12758,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12805,7 +12805,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12855,7 +12855,7 @@
         <v>1</v>
       </c>
       <c r="Q227">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R227">
         <v>20</v>
@@ -12908,7 +12908,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -12958,7 +12958,7 @@
         <v>1</v>
       </c>
       <c r="Q229">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R229">
         <v>20</v>
@@ -13014,7 +13014,7 @@
         <v>1</v>
       </c>
       <c r="Q230">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R230">
         <v>0</v>
@@ -13058,10 +13058,10 @@
         <v>1</v>
       </c>
       <c r="P231" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q231">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13108,7 +13108,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13155,7 +13155,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13202,7 +13202,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13249,7 +13249,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13296,7 +13296,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13343,7 +13343,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13384,10 +13384,10 @@
         <v>1</v>
       </c>
       <c r="P238" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q238">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13434,7 +13434,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13481,7 +13481,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13531,7 +13531,7 @@
         <v>1</v>
       </c>
       <c r="Q241">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="R241">
         <v>26</v>
@@ -13581,7 +13581,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13631,7 +13631,7 @@
         <v>1</v>
       </c>
       <c r="Q243">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="R243">
         <v>19</v>
@@ -13684,7 +13684,7 @@
         <v>1</v>
       </c>
       <c r="Q244">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="R244">
         <v>18</v>
@@ -13737,7 +13737,7 @@
         <v>1</v>
       </c>
       <c r="Q245">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="R245">
         <v>22</v>
@@ -13787,7 +13787,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13834,7 +13834,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13884,7 +13884,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -13934,7 +13934,7 @@
         <v>1</v>
       </c>
       <c r="Q249">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R249">
         <v>26</v>
@@ -13987,7 +13987,7 @@
         <v>1</v>
       </c>
       <c r="Q250">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R250">
         <v>15</v>
@@ -14040,7 +14040,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14090,7 +14090,7 @@
         <v>1</v>
       </c>
       <c r="Q252">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R252">
         <v>9</v>
@@ -14143,7 +14143,7 @@
         <v>1</v>
       </c>
       <c r="Q253">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R253">
         <v>22</v>
@@ -14193,7 +14193,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14243,7 +14243,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14293,7 +14293,7 @@
         <v>1</v>
       </c>
       <c r="Q256">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R256">
         <v>7</v>
@@ -14343,7 +14343,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14393,7 +14393,7 @@
         <v>1</v>
       </c>
       <c r="Q258">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R258">
         <v>17</v>
@@ -14443,7 +14443,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14493,7 +14493,7 @@
         <v>1</v>
       </c>
       <c r="Q260">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R260">
         <v>17</v>
@@ -14543,7 +14543,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14593,7 +14593,7 @@
         <v>1</v>
       </c>
       <c r="Q262">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R262">
         <v>28</v>
@@ -14643,7 +14643,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14693,7 +14693,7 @@
         <v>1</v>
       </c>
       <c r="Q264">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R264">
         <v>19</v>
@@ -14746,7 +14746,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14796,7 +14796,7 @@
         <v>1</v>
       </c>
       <c r="Q266">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R266">
         <v>10</v>
@@ -14846,7 +14846,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14893,7 +14893,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -14940,7 +14940,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -14987,7 +14987,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15034,7 +15034,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15084,7 +15084,7 @@
         <v>1</v>
       </c>
       <c r="Q272">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R272">
         <v>21</v>
@@ -15137,7 +15137,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15187,7 +15187,7 @@
         <v>1</v>
       </c>
       <c r="Q274">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R274">
         <v>12</v>
@@ -15240,7 +15240,7 @@
         <v>1</v>
       </c>
       <c r="Q275">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R275">
         <v>26</v>
@@ -15293,7 +15293,7 @@
         <v>1</v>
       </c>
       <c r="Q276">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R276">
         <v>21</v>
@@ -15346,7 +15346,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15396,7 +15396,7 @@
         <v>1</v>
       </c>
       <c r="Q278">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R278">
         <v>12</v>
@@ -15449,7 +15449,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15499,7 +15499,7 @@
         <v>1</v>
       </c>
       <c r="Q280">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R280">
         <v>20</v>
@@ -15549,7 +15549,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15599,7 +15599,7 @@
         <v>1</v>
       </c>
       <c r="Q282">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R282">
         <v>22</v>
@@ -15649,7 +15649,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15696,7 +15696,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15743,7 +15743,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15793,7 +15793,7 @@
         <v>1</v>
       </c>
       <c r="Q286">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R286">
         <v>20</v>
@@ -15846,7 +15846,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15896,7 +15896,7 @@
         <v>1</v>
       </c>
       <c r="Q288">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R288">
         <v>6</v>
@@ -15946,7 +15946,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -15996,7 +15996,7 @@
         <v>1</v>
       </c>
       <c r="Q290">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R290">
         <v>13</v>
@@ -16046,7 +16046,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16093,7 +16093,7 @@
         <v>1</v>
       </c>
       <c r="Q292">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R292">
         <v>30</v>
@@ -16143,7 +16143,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16190,7 +16190,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16237,7 +16237,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16284,7 +16284,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16334,7 +16334,7 @@
         <v>1</v>
       </c>
       <c r="Q297">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R297">
         <v>17</v>
@@ -16387,7 +16387,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16437,7 +16437,7 @@
         <v>1</v>
       </c>
       <c r="Q299">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R299">
         <v>9</v>
@@ -16490,7 +16490,7 @@
         <v>1</v>
       </c>
       <c r="Q300">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R300">
         <v>20</v>
@@ -16540,7 +16540,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16587,7 +16587,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16634,7 +16634,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16681,7 +16681,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16731,7 +16731,7 @@
         <v>1</v>
       </c>
       <c r="Q305">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R305">
         <v>0</v>
@@ -16784,7 +16784,7 @@
         <v>1</v>
       </c>
       <c r="Q306">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R306">
         <v>22</v>
@@ -16837,7 +16837,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16887,7 +16887,7 @@
         <v>1</v>
       </c>
       <c r="Q308">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R308">
         <v>25</v>
@@ -16940,7 +16940,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -16987,7 +16987,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -17034,7 +17034,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17081,7 +17081,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17128,7 +17128,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17175,7 +17175,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17222,7 +17222,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17272,7 +17272,7 @@
         <v>1</v>
       </c>
       <c r="Q316">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R316">
         <v>25</v>
@@ -17325,7 +17325,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17372,7 +17372,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17419,7 +17419,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17466,7 +17466,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17513,7 +17513,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17560,7 +17560,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17607,7 +17607,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17657,7 +17657,7 @@
         <v>1</v>
       </c>
       <c r="Q324">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R324">
         <v>24</v>
@@ -17701,10 +17701,10 @@
         <v>1</v>
       </c>
       <c r="P325" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q325">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17751,7 +17751,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17798,7 +17798,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17845,7 +17845,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17892,7 +17892,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -17933,10 +17933,10 @@
         <v>1</v>
       </c>
       <c r="P330" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q330">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -17986,7 +17986,7 @@
         <v>1</v>
       </c>
       <c r="Q331">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="R331">
         <v>21</v>
@@ -18036,7 +18036,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18083,7 +18083,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18130,7 +18130,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18177,7 +18177,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18227,7 +18227,7 @@
         <v>1</v>
       </c>
       <c r="Q336">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="R336">
         <v>11</v>
@@ -18280,7 +18280,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18330,7 +18330,7 @@
         <v>1</v>
       </c>
       <c r="Q338">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="R338">
         <v>12</v>
@@ -18383,7 +18383,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18433,7 +18433,7 @@
         <v>1</v>
       </c>
       <c r="Q340">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="R340">
         <v>12</v>
@@ -18483,7 +18483,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18533,7 +18533,7 @@
         <v>1</v>
       </c>
       <c r="Q342">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="R342">
         <v>12</v>
@@ -18583,7 +18583,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18633,7 +18633,7 @@
         <v>1</v>
       </c>
       <c r="Q344">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="R344">
         <v>22</v>
@@ -18683,7 +18683,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18733,7 +18733,7 @@
         <v>1</v>
       </c>
       <c r="Q346">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="R346">
         <v>15</v>
@@ -18783,7 +18783,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18833,7 +18833,7 @@
         <v>1</v>
       </c>
       <c r="Q348">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="R348">
         <v>4</v>
@@ -18886,7 +18886,7 @@
         <v>1</v>
       </c>
       <c r="Q349">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="R349">
         <v>23</v>
@@ -18936,7 +18936,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -18983,7 +18983,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19030,7 +19030,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19080,7 +19080,7 @@
         <v>1</v>
       </c>
       <c r="Q353">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="R353">
         <v>18</v>
@@ -19130,7 +19130,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19180,7 +19180,7 @@
         <v>1</v>
       </c>
       <c r="Q355">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="R355">
         <v>21</v>
@@ -19230,7 +19230,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19280,7 +19280,7 @@
         <v>1</v>
       </c>
       <c r="Q357">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="R357">
         <v>17</v>
@@ -19333,7 +19333,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19383,7 +19383,7 @@
         <v>1</v>
       </c>
       <c r="Q359">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R359">
         <v>18</v>
@@ -19436,7 +19436,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19486,7 +19486,7 @@
         <v>1</v>
       </c>
       <c r="Q361">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R361">
         <v>13</v>
@@ -19539,7 +19539,7 @@
         <v>1</v>
       </c>
       <c r="Q362">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R362">
         <v>14</v>
@@ -19592,7 +19592,7 @@
         <v>1</v>
       </c>
       <c r="Q363">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R363">
         <v>19</v>
@@ -19639,7 +19639,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19686,7 +19686,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19733,7 +19733,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19780,7 +19780,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19827,7 +19827,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19874,7 +19874,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19921,7 +19921,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -19971,7 +19971,7 @@
         <v>1</v>
       </c>
       <c r="Q371">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R371">
         <v>31</v>
@@ -20021,7 +20021,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20071,7 +20071,7 @@
         <v>1</v>
       </c>
       <c r="Q373">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R373">
         <v>21</v>
@@ -20121,7 +20121,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20168,7 +20168,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20218,7 +20218,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20268,7 +20268,7 @@
         <v>1</v>
       </c>
       <c r="Q377">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R377">
         <v>24</v>
@@ -20318,7 +20318,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20368,7 +20368,7 @@
         <v>1</v>
       </c>
       <c r="Q379">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R379">
         <v>5</v>
@@ -20418,7 +20418,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20468,7 +20468,7 @@
         <v>1</v>
       </c>
       <c r="Q381">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R381">
         <v>27</v>
@@ -20521,7 +20521,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20571,7 +20571,7 @@
         <v>1</v>
       </c>
       <c r="Q383">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R383">
         <v>19</v>
@@ -20621,7 +20621,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20671,7 +20671,7 @@
         <v>1</v>
       </c>
       <c r="Q385">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R385">
         <v>6</v>
@@ -20721,7 +20721,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20768,7 +20768,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20815,7 +20815,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20862,7 +20862,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20909,7 +20909,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -20959,7 +20959,7 @@
         <v>1</v>
       </c>
       <c r="Q391">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R391">
         <v>13</v>
@@ -21012,7 +21012,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21059,7 +21059,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21109,7 +21109,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21156,7 +21156,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21203,7 +21203,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21253,7 +21253,7 @@
         <v>1</v>
       </c>
       <c r="Q397">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R397">
         <v>25</v>
@@ -21306,7 +21306,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21356,7 +21356,7 @@
         <v>1</v>
       </c>
       <c r="Q399">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R399">
         <v>19</v>
@@ -21409,7 +21409,7 @@
         <v>1</v>
       </c>
       <c r="Q400">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R400">
         <v>22</v>
@@ -21459,7 +21459,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21509,7 +21509,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21559,7 +21559,7 @@
         <v>1</v>
       </c>
       <c r="Q403">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R403">
         <v>5</v>
@@ -21609,7 +21609,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21656,7 +21656,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21703,7 +21703,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21753,7 +21753,7 @@
         <v>1</v>
       </c>
       <c r="Q407">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R407">
         <v>26</v>
@@ -21803,7 +21803,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21853,7 +21853,7 @@
         <v>1</v>
       </c>
       <c r="Q409">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R409">
         <v>23</v>
@@ -21903,7 +21903,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -21950,7 +21950,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -21997,7 +21997,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22044,7 +22044,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22091,7 +22091,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22138,7 +22138,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22185,7 +22185,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22235,7 +22235,7 @@
         <v>1</v>
       </c>
       <c r="Q417">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R417">
         <v>30</v>
@@ -22285,7 +22285,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22332,7 +22332,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22382,7 +22382,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22429,7 +22429,7 @@
         <v>1</v>
       </c>
       <c r="Q421">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R421">
         <v>23</v>
@@ -22476,7 +22476,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22523,7 +22523,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22573,7 +22573,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22623,7 +22623,7 @@
         <v>1</v>
       </c>
       <c r="Q425">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R425">
         <v>3</v>
@@ -22670,7 +22670,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22720,7 +22720,7 @@
         <v>1</v>
       </c>
       <c r="Q427">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R427">
         <v>1</v>
@@ -22767,7 +22767,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22817,7 +22817,7 @@
         <v>1</v>
       </c>
       <c r="Q429">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R429">
         <v>12</v>
@@ -22864,7 +22864,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22914,7 +22914,7 @@
         <v>1</v>
       </c>
       <c r="Q431">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R431">
         <v>4</v>
@@ -22970,7 +22970,7 @@
         <v>1</v>
       </c>
       <c r="Q432">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R432">
         <v>0</v>
@@ -23014,10 +23014,10 @@
         <v>1</v>
       </c>
       <c r="P433" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q433">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23058,10 +23058,10 @@
         <v>1</v>
       </c>
       <c r="P434" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q434">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23111,7 +23111,7 @@
         <v>1</v>
       </c>
       <c r="Q435">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="R435">
         <v>14</v>
@@ -23161,7 +23161,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23208,7 +23208,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23255,7 +23255,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23302,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23352,7 +23352,7 @@
         <v>1</v>
       </c>
       <c r="Q440">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="R440">
         <v>26</v>
@@ -23405,7 +23405,7 @@
         <v>1</v>
       </c>
       <c r="Q441">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="R441">
         <v>13</v>
@@ -23458,7 +23458,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23508,7 +23508,7 @@
         <v>1</v>
       </c>
       <c r="Q443">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="R443">
         <v>12</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23608,7 +23608,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23702,7 +23702,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23799,7 +23799,7 @@
         <v>1</v>
       </c>
       <c r="Q449">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="R449">
         <v>24</v>
@@ -23852,7 +23852,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23899,7 +23899,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -23996,7 +23996,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24043,7 +24043,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24090,7 +24090,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24137,7 +24137,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24234,7 +24234,7 @@
         <v>1</v>
       </c>
       <c r="Q458">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="R458">
         <v>14</v>
@@ -24284,7 +24284,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24334,7 +24334,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24431,7 +24431,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24481,7 +24481,7 @@
         <v>1</v>
       </c>
       <c r="Q463">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="R463">
         <v>28</v>
@@ -24534,7 +24534,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24581,7 +24581,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24628,7 +24628,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24675,7 +24675,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24722,7 +24722,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24769,7 +24769,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24819,7 +24819,7 @@
         <v>1</v>
       </c>
       <c r="Q470">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="R470">
         <v>15</v>
@@ -24869,7 +24869,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -24916,7 +24916,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -24963,7 +24963,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -25010,7 +25010,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25060,7 +25060,7 @@
         <v>1</v>
       </c>
       <c r="Q475">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="R475">
         <v>7</v>
@@ -25113,7 +25113,7 @@
         <v>1</v>
       </c>
       <c r="Q476">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="R476">
         <v>13</v>
@@ -25163,7 +25163,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25210,7 +25210,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25257,7 +25257,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25307,7 +25307,7 @@
         <v>1</v>
       </c>
       <c r="Q480">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="R480">
         <v>12</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25407,7 +25407,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -25454,7 +25454,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25501,7 +25501,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25548,7 +25548,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25598,7 +25598,7 @@
         <v>1</v>
       </c>
       <c r="Q486">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="R486">
         <v>18</v>
@@ -25651,7 +25651,7 @@
         <v>1</v>
       </c>
       <c r="Q487">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="R487">
         <v>21</v>
@@ -25701,7 +25701,7 @@
         <v>0</v>
       </c>
       <c r="Q488">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="489" spans="1:18">
@@ -25751,7 +25751,7 @@
         <v>1</v>
       </c>
       <c r="Q489">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="R489">
         <v>13</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="Q490">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="491" spans="1:18">
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="Q491">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="492" spans="1:18">
@@ -25898,7 +25898,7 @@
         <v>0</v>
       </c>
       <c r="Q492">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="493" spans="1:18">
@@ -25948,7 +25948,7 @@
         <v>1</v>
       </c>
       <c r="Q493">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="R493">
         <v>7</v>
@@ -26001,7 +26001,7 @@
         <v>1</v>
       </c>
       <c r="Q494">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="R494">
         <v>17</v>
@@ -26051,7 +26051,7 @@
         <v>0</v>
       </c>
       <c r="Q495">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="496" spans="1:18">
@@ -26101,7 +26101,7 @@
         <v>1</v>
       </c>
       <c r="Q496">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="R496">
         <v>14</v>
@@ -26151,7 +26151,7 @@
         <v>0</v>
       </c>
       <c r="Q497">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="498" spans="1:18">
@@ -26201,7 +26201,7 @@
         <v>1</v>
       </c>
       <c r="Q498">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="R498">
         <v>14</v>
@@ -26248,7 +26248,7 @@
         <v>0</v>
       </c>
       <c r="Q499">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="500" spans="1:18">
@@ -26298,7 +26298,7 @@
         <v>1</v>
       </c>
       <c r="Q500">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="R500">
         <v>15</v>
@@ -26351,7 +26351,7 @@
         <v>0</v>
       </c>
       <c r="Q501">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="502" spans="1:18">
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="Q502">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="503" spans="1:18">
@@ -26445,7 +26445,7 @@
         <v>0</v>
       </c>
       <c r="Q503">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="504" spans="1:18">
@@ -26492,7 +26492,7 @@
         <v>0</v>
       </c>
       <c r="Q504">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="505" spans="1:18">
@@ -26539,7 +26539,7 @@
         <v>0</v>
       </c>
       <c r="Q505">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="506" spans="1:18">
@@ -26583,7 +26583,7 @@
         <v>0</v>
       </c>
       <c r="Q506">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="507" spans="1:18">
@@ -26630,7 +26630,7 @@
         <v>0</v>
       </c>
       <c r="Q507">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="508" spans="1:18">
@@ -26677,7 +26677,7 @@
         <v>0</v>
       </c>
       <c r="Q508">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="509" spans="1:18">
@@ -26724,7 +26724,7 @@
         <v>0</v>
       </c>
       <c r="Q509">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="510" spans="1:18">
@@ -26774,7 +26774,7 @@
         <v>1</v>
       </c>
       <c r="Q510">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="R510">
         <v>2</v>
@@ -26827,7 +26827,7 @@
         <v>1</v>
       </c>
       <c r="Q511">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="R511">
         <v>0</v>
@@ -26871,10 +26871,10 @@
         <v>1</v>
       </c>
       <c r="P512" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q512">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="513" spans="1:17">
@@ -26915,7 +26915,7 @@
         <v>0</v>
       </c>
       <c r="Q513">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
